--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D2" t="n">
         <v>506</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D3" t="n">
         <v>601</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D5" t="n">
         <v>423</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D6" t="n">
         <v>427</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D7" t="n">
         <v>402</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D8" t="n">
         <v>406</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D9" t="n">
         <v>403</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D10" t="n">
         <v>510</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="D11" t="n">
         <v>469</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D12" t="n">
         <v>506</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D13" t="n">
         <v>457</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D14" t="n">
         <v>486</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D15" t="n">
         <v>459</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D16" t="n">
         <v>475</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D17" t="n">
         <v>456</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9856</t>
+          <t>9872</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>5835</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>3393</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>924</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="D2" t="n">
         <v>506</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D3" t="n">
         <v>601</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D4" t="n">
         <v>444</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D5" t="n">
         <v>423</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D6" t="n">
         <v>427</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D7" t="n">
         <v>402</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D9" t="n">
         <v>403</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D10" t="n">
         <v>510</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D11" t="n">
         <v>469</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D12" t="n">
         <v>506</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D13" t="n">
         <v>457</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D15" t="n">
         <v>459</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D16" t="n">
         <v>475</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D17" t="n">
         <v>456</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9872</t>
+          <t>9844</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3399</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>925</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>278</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D3" t="n">
         <v>601</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D4" t="n">
         <v>444</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D5" t="n">
         <v>423</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D6" t="n">
         <v>427</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D7" t="n">
         <v>402</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D8" t="n">
         <v>406</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D9" t="n">
         <v>403</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="D10" t="n">
         <v>510</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D11" t="n">
         <v>469</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="D12" t="n">
         <v>506</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D13" t="n">
         <v>457</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D14" t="n">
         <v>486</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D15" t="n">
         <v>459</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D16" t="n">
         <v>475</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D17" t="n">
         <v>456</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9844</t>
+          <t>9873</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5843</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3401</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>926</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D2" t="n">
-        <v>506</v>
+        <v>842</v>
       </c>
       <c r="E2" t="n">
-        <v>609</v>
+        <v>1011</v>
       </c>
       <c r="F2" t="n">
-        <v>720</v>
+        <v>1189</v>
       </c>
       <c r="G2" t="n">
-        <v>894</v>
+        <v>1467</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="D3" t="n">
-        <v>601</v>
+        <v>826</v>
       </c>
       <c r="E3" t="n">
-        <v>727</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>868</v>
+        <v>1195</v>
       </c>
       <c r="G3" t="n">
-        <v>1090</v>
+        <v>1504</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D4" t="n">
-        <v>444</v>
+        <v>672</v>
       </c>
       <c r="E4" t="n">
-        <v>536</v>
+        <v>813</v>
       </c>
       <c r="F4" t="n">
-        <v>635</v>
+        <v>968</v>
       </c>
       <c r="G4" t="n">
-        <v>792</v>
+        <v>1215</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D5" t="n">
-        <v>423</v>
+        <v>555</v>
       </c>
       <c r="E5" t="n">
-        <v>514</v>
+        <v>669</v>
       </c>
       <c r="F5" t="n">
-        <v>621</v>
+        <v>793</v>
       </c>
       <c r="G5" t="n">
-        <v>791</v>
+        <v>988</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>427</v>
+        <v>565</v>
       </c>
       <c r="E6" t="n">
-        <v>519</v>
+        <v>683</v>
       </c>
       <c r="F6" t="n">
-        <v>626</v>
+        <v>816</v>
       </c>
       <c r="G6" t="n">
-        <v>795</v>
+        <v>1025</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D7" t="n">
-        <v>402</v>
+        <v>542</v>
       </c>
       <c r="E7" t="n">
-        <v>486</v>
+        <v>657</v>
       </c>
       <c r="F7" t="n">
-        <v>579</v>
+        <v>785</v>
       </c>
       <c r="G7" t="n">
-        <v>726</v>
+        <v>989</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D8" t="n">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="E8" t="n">
-        <v>492</v>
+        <v>622</v>
       </c>
       <c r="F8" t="n">
-        <v>590</v>
+        <v>754</v>
       </c>
       <c r="G8" t="n">
-        <v>744</v>
+        <v>966</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D9" t="n">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="E9" t="n">
-        <v>490</v>
+        <v>622</v>
       </c>
       <c r="F9" t="n">
-        <v>590</v>
+        <v>747</v>
       </c>
       <c r="G9" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D10" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E10" t="n">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="F10" t="n">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="G10" t="n">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D11" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E11" t="n">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F11" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G11" t="n">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D12" t="n">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="E12" t="n">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F12" t="n">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="G12" t="n">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D13" t="n">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="E13" t="n">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F13" t="n">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G13" t="n">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E14" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F14" t="n">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="G14" t="n">
-        <v>873</v>
+        <v>921</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D15" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E15" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F15" t="n">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="G15" t="n">
-        <v>836</v>
+        <v>884</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D16" t="n">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="E16" t="n">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="F16" t="n">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G16" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D17" t="n">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E17" t="n">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="F17" t="n">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="G17" t="n">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9873</t>
+          <t>9875</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5848</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>3406</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>932</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>284</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9875</t>
+          <t>9856</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>5834</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>3393</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>927</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9856</t>
+          <t>9874</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5834</t>
+          <t>5847</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3399</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>928</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>279</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A2" t="n">
+        <v>889</v>
+      </c>
+      <c r="B2" t="n">
+        <v>823.5604521659841</v>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
+        <v>954.1435047938744</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>1467</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.581947743467933</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-12.06726013847676</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-300</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-25.23128679562658</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-578</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-39.40013633265167</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A3" t="n">
+        <v>906</v>
+      </c>
+      <c r="B3" t="n">
+        <v>836.1247423386483</v>
       </c>
       <c r="C3" t="n">
-        <v>928</v>
+        <v>975.796439611928</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>1504</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.685230024213075</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-94</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-289</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-24.18410041841004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-598</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-39.76063829787234</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A4" t="n">
+        <v>821</v>
+      </c>
+      <c r="B4" t="n">
+        <v>757.884093601066</v>
       </c>
       <c r="C4" t="n">
-        <v>845</v>
+        <v>884.9939069586167</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>1215</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>149</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.17261904761905</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.984009840098401</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-147</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-15.18595041322314</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-394</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-32.42798353909465</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A5" t="n">
+        <v>707</v>
+      </c>
+      <c r="B5" t="n">
+        <v>637.0597319627624</v>
       </c>
       <c r="C5" t="n">
-        <v>714</v>
+        <v>777.6132308752324</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>988</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>152</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27.38738738738738</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.680119581464873</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-86</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-10.84489281210593</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-281</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-28.4412955465587</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A6" t="n">
+        <v>609</v>
+      </c>
+      <c r="B6" t="n">
+        <v>543.0316967632233</v>
       </c>
       <c r="C6" t="n">
-        <v>614</v>
+        <v>674.7471027889979</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>1025</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>44</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.787610619469026</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-10.83455344070278</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-207</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-25.36764705882353</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-416</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-40.58536585365854</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A7" t="n">
+        <v>580</v>
+      </c>
+      <c r="B7" t="n">
+        <v>508.8506585167646</v>
       </c>
       <c r="C7" t="n">
-        <v>584</v>
+        <v>651.5217064559343</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>989</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.011070110701106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-11.71993911719939</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-205</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-26.11464968152866</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-409</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-41.35490394337715</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A8" t="n">
+        <v>589</v>
+      </c>
+      <c r="B8" t="n">
+        <v>522.0292765959177</v>
       </c>
       <c r="C8" t="n">
-        <v>603</v>
+        <v>655.2656650141848</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>966</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.26418786692759</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-5.305466237942122</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-165</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-21.88328912466843</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-377</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-39.02691511387164</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A9" t="n">
+        <v>626</v>
+      </c>
+      <c r="B9" t="n">
+        <v>556.0342639667346</v>
       </c>
       <c r="C9" t="n">
-        <v>647</v>
+        <v>696.6440494687153</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>944</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>113</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.02729044834308</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6430868167202572</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-121</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-16.19812583668005</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-318</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-33.6864406779661</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A10" t="n">
+        <v>665</v>
+      </c>
+      <c r="B10" t="n">
+        <v>593.1463617018064</v>
       </c>
       <c r="C10" t="n">
-        <v>682</v>
+        <v>737.3093003886398</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>875</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>185</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.54166666666667</v>
+      </c>
+      <c r="J10" t="n">
+        <v>84</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.4578313253012</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-30</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-4.316546762589928</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-210</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-24</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A11" t="n">
+        <v>679</v>
+      </c>
+      <c r="B11" t="n">
+        <v>616.3188185308268</v>
       </c>
       <c r="C11" t="n">
-        <v>710</v>
+        <v>742.1565032711981</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>845</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>215</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46.33620689655172</v>
+      </c>
+      <c r="J11" t="n">
+        <v>117</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.81850533807829</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.192250372578241</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-166</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-19.64497041420118</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A12" t="n">
+        <v>669</v>
+      </c>
+      <c r="B12" t="n">
+        <v>598.1660084809773</v>
       </c>
       <c r="C12" t="n">
-        <v>680</v>
+        <v>739.1099297030568</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>867</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>216</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.68211920529802</v>
+      </c>
+      <c r="J12" t="n">
+        <v>117</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.19565217391304</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.5943536404160475</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-198</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-22.83737024221453</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A13" t="n">
+        <v>588</v>
+      </c>
+      <c r="B13" t="n">
+        <v>518.2615986041067</v>
       </c>
       <c r="C13" t="n">
-        <v>590</v>
+        <v>658.6577191344247</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>859</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>148</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.63636363636363</v>
+      </c>
+      <c r="J13" t="n">
+        <v>51</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.497206703910614</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-72</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-10.90909090909091</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-271</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-31.54831199068684</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A14" t="n">
+        <v>460</v>
+      </c>
+      <c r="B14" t="n">
+        <v>393.4809917567987</v>
       </c>
       <c r="C14" t="n">
-        <v>454</v>
+        <v>526.4379987871786</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>921</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4.564315352697095</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-128</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-21.7687074829932</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-256</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-35.75418994413408</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-461</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-50.0542888165038</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A15" t="n">
+        <v>343</v>
+      </c>
+      <c r="B15" t="n">
+        <v>277.1911021770755</v>
       </c>
       <c r="C15" t="n">
-        <v>346</v>
+        <v>408.317981086927</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>884</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>-111</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-24.44933920704846</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-211</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-38.08664259927797</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-337</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-49.55882352941177</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-541</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-61.19909502262444</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A16" t="n">
+        <v>282</v>
+      </c>
+      <c r="B16" t="n">
+        <v>215.9868413638432</v>
       </c>
       <c r="C16" t="n">
-        <v>286</v>
+        <v>348.0854262835079</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>881</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>-168</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-37.33333333333334</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-268</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-48.72727272727273</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-395</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-58.34564254062038</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-599</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-67.99091940976163</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
+      <c r="A17" t="n">
+        <v>273</v>
+      </c>
+      <c r="B17" t="n">
+        <v>207.892385836384</v>
       </c>
       <c r="C17" t="n">
-        <v>279</v>
+        <v>337.9012737421938</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>858</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>-159</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-36.80555555555556</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-254</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-48.19734345351044</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-380</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-58.19295558958652</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-585</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-68.18181818181817</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9874</t>
+          <t>9686</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5727</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3399</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>906</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>273</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>889</v>
-      </c>
-      <c r="B2" t="n">
-        <v>823.5604521659841</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>954.1435047938744</v>
+        <v>890</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>1467</v>
       </c>
-      <c r="H2" t="n">
-        <v>47</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.581947743467933</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-12.06726013847676</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-300</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-25.23128679562658</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-578</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-39.40013633265167</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>906</v>
-      </c>
-      <c r="B3" t="n">
-        <v>836.1247423386483</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>975.796439611928</v>
+        <v>912</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>1504</v>
       </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.685230024213075</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-94</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-289</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-24.18410041841004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-598</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-39.76063829787234</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>821</v>
-      </c>
-      <c r="B4" t="n">
-        <v>757.884093601066</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>884.9939069586167</v>
+        <v>824</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>1215</v>
       </c>
-      <c r="H4" t="n">
-        <v>149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22.17261904761905</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.984009840098401</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-147</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-15.18595041322314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-32.42798353909465</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>707</v>
-      </c>
-      <c r="B5" t="n">
-        <v>637.0597319627624</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>777.6132308752324</v>
+        <v>704</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>988</v>
       </c>
-      <c r="H5" t="n">
-        <v>152</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27.38738738738738</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.680119581464873</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-86</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-10.84489281210593</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-281</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-28.4412955465587</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>609</v>
-      </c>
-      <c r="B6" t="n">
-        <v>543.0316967632233</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>674.7471027889979</v>
+        <v>617</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>1025</v>
       </c>
-      <c r="H6" t="n">
-        <v>44</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.787610619469026</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-10.83455344070278</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-207</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-25.36764705882353</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-416</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-40.58536585365854</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>580</v>
-      </c>
-      <c r="B7" t="n">
-        <v>508.8506585167646</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>651.5217064559343</v>
+        <v>579</v>
       </c>
       <c r="D7" t="n">
         <v>542</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>989</v>
       </c>
-      <c r="H7" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.011070110701106</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-77</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-11.71993911719939</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-205</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-26.11464968152866</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-409</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-41.35490394337715</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>589</v>
-      </c>
-      <c r="B8" t="n">
-        <v>522.0292765959177</v>
-      </c>
-      <c r="C8" t="n">
-        <v>655.2656650141848</v>
       </c>
       <c r="D8" t="n">
         <v>511</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>966</v>
       </c>
-      <c r="H8" t="n">
-        <v>78</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15.26418786692759</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-33</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-5.305466237942122</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-165</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-21.88328912466843</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-377</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-39.02691511387164</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>626</v>
-      </c>
-      <c r="B9" t="n">
-        <v>556.0342639667346</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>696.6440494687153</v>
+        <v>624</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>944</v>
       </c>
-      <c r="H9" t="n">
-        <v>113</v>
-      </c>
-      <c r="I9" t="n">
-        <v>22.02729044834308</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6430868167202572</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-121</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-16.19812583668005</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-318</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-33.6864406779661</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>665</v>
-      </c>
-      <c r="B10" t="n">
-        <v>593.1463617018064</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>737.3093003886398</v>
+        <v>663</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>875</v>
       </c>
-      <c r="H10" t="n">
-        <v>185</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38.54166666666667</v>
-      </c>
-      <c r="J10" t="n">
-        <v>84</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14.4578313253012</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-30</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-4.316546762589928</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-210</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-24</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>679</v>
-      </c>
-      <c r="B11" t="n">
-        <v>616.3188185308268</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>742.1565032711981</v>
+        <v>688</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>845</v>
       </c>
-      <c r="H11" t="n">
-        <v>215</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46.33620689655172</v>
-      </c>
-      <c r="J11" t="n">
-        <v>117</v>
-      </c>
-      <c r="K11" t="n">
-        <v>20.81850533807829</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.192250372578241</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-166</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-19.64497041420118</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>669</v>
-      </c>
-      <c r="B12" t="n">
-        <v>598.1660084809773</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>739.1099297030568</v>
+        <v>666</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>867</v>
       </c>
-      <c r="H12" t="n">
-        <v>216</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47.68211920529802</v>
-      </c>
-      <c r="J12" t="n">
-        <v>117</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21.19565217391304</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.5943536404160475</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-198</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-22.83737024221453</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>588</v>
-      </c>
-      <c r="B13" t="n">
-        <v>518.2615986041067</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>658.6577191344247</v>
+        <v>585</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>859</v>
       </c>
-      <c r="H13" t="n">
-        <v>148</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33.63636363636363</v>
-      </c>
-      <c r="J13" t="n">
-        <v>51</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.497206703910614</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-72</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-10.90909090909091</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-271</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-31.54831199068684</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>460</v>
-      </c>
-      <c r="B14" t="n">
-        <v>393.4809917567987</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>526.4379987871786</v>
+        <v>461</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>921</v>
       </c>
-      <c r="H14" t="n">
-        <v>-22</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-4.564315352697095</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-128</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-21.7687074829932</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-256</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-35.75418994413408</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-461</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-50.0542888165038</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>343</v>
-      </c>
-      <c r="B15" t="n">
-        <v>277.1911021770755</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>408.317981086927</v>
+        <v>388</v>
       </c>
       <c r="D15" t="n">
         <v>454</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>884</v>
       </c>
-      <c r="H15" t="n">
-        <v>-111</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-24.44933920704846</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-211</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-38.08664259927797</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-337</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-49.55882352941177</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-541</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-61.19909502262444</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>282</v>
-      </c>
-      <c r="B16" t="n">
-        <v>215.9868413638432</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>348.0854262835079</v>
+        <v>385</v>
       </c>
       <c r="D16" t="n">
         <v>450</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>881</v>
       </c>
-      <c r="H16" t="n">
-        <v>-168</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-37.33333333333334</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-268</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-48.72727272727273</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-395</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-58.34564254062038</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-599</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-67.99091940976163</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>273</v>
-      </c>
-      <c r="B17" t="n">
-        <v>207.892385836384</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>337.9012737421938</v>
+        <v>369</v>
       </c>
       <c r="D17" t="n">
         <v>432</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>858</v>
       </c>
-      <c r="H17" t="n">
-        <v>-159</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-36.80555555555556</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-254</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-48.19734345351044</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-380</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-58.19295558958652</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-585</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-68.18181818181817</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9686</t>
+          <t>9944</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>5739</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3330</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>912</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>369</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D2" t="n">
         <v>842</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D3" t="n">
         <v>826</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D4" t="n">
         <v>672</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D5" t="n">
         <v>555</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D6" t="n">
         <v>565</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D9" t="n">
         <v>513</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D10" t="n">
         <v>480</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D11" t="n">
         <v>464</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D12" t="n">
         <v>453</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D13" t="n">
         <v>440</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D14" t="n">
         <v>482</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9944</t>
+          <t>9914</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>5710</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>3314</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>904</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>886</v>
+        <v>721</v>
       </c>
       <c r="D2" t="n">
-        <v>842</v>
+        <v>741</v>
       </c>
       <c r="E2" t="n">
-        <v>1011</v>
+        <v>901</v>
       </c>
       <c r="F2" t="n">
-        <v>1189</v>
+        <v>1091</v>
       </c>
       <c r="G2" t="n">
-        <v>1467</v>
+        <v>1394</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>904</v>
+        <v>760</v>
       </c>
       <c r="D3" t="n">
-        <v>826</v>
+        <v>506</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>609</v>
       </c>
       <c r="F3" t="n">
-        <v>1195</v>
+        <v>720</v>
       </c>
       <c r="G3" t="n">
-        <v>1504</v>
+        <v>894</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>825</v>
+        <v>770</v>
       </c>
       <c r="D4" t="n">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="E4" t="n">
-        <v>813</v>
+        <v>727</v>
       </c>
       <c r="F4" t="n">
-        <v>968</v>
+        <v>868</v>
       </c>
       <c r="G4" t="n">
-        <v>1215</v>
+        <v>1090</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D5" t="n">
-        <v>555</v>
+        <v>444</v>
       </c>
       <c r="E5" t="n">
-        <v>669</v>
+        <v>536</v>
       </c>
       <c r="F5" t="n">
-        <v>793</v>
+        <v>635</v>
       </c>
       <c r="G5" t="n">
-        <v>988</v>
+        <v>792</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D6" t="n">
-        <v>565</v>
+        <v>423</v>
       </c>
       <c r="E6" t="n">
-        <v>683</v>
+        <v>514</v>
       </c>
       <c r="F6" t="n">
-        <v>816</v>
+        <v>621</v>
       </c>
       <c r="G6" t="n">
-        <v>1025</v>
+        <v>791</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>579</v>
+        <v>498</v>
       </c>
       <c r="D7" t="n">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="E7" t="n">
-        <v>657</v>
+        <v>519</v>
       </c>
       <c r="F7" t="n">
-        <v>785</v>
+        <v>626</v>
       </c>
       <c r="G7" t="n">
-        <v>989</v>
+        <v>795</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>589</v>
+        <v>471</v>
       </c>
       <c r="D8" t="n">
-        <v>511</v>
+        <v>402</v>
       </c>
       <c r="E8" t="n">
-        <v>622</v>
+        <v>486</v>
       </c>
       <c r="F8" t="n">
-        <v>754</v>
+        <v>579</v>
       </c>
       <c r="G8" t="n">
-        <v>966</v>
+        <v>726</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>620</v>
+        <v>488</v>
       </c>
       <c r="D9" t="n">
-        <v>513</v>
+        <v>406</v>
       </c>
       <c r="E9" t="n">
-        <v>622</v>
+        <v>492</v>
       </c>
       <c r="F9" t="n">
-        <v>747</v>
+        <v>590</v>
       </c>
       <c r="G9" t="n">
-        <v>944</v>
+        <v>744</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>657</v>
+        <v>524</v>
       </c>
       <c r="D10" t="n">
-        <v>480</v>
+        <v>403</v>
       </c>
       <c r="E10" t="n">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="F10" t="n">
-        <v>695</v>
+        <v>590</v>
       </c>
       <c r="G10" t="n">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>686</v>
+        <v>559</v>
       </c>
       <c r="D11" t="n">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="E11" t="n">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="F11" t="n">
-        <v>671</v>
+        <v>730</v>
       </c>
       <c r="G11" t="n">
-        <v>845</v>
+        <v>911</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>668</v>
+        <v>573</v>
       </c>
       <c r="D12" t="n">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E12" t="n">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="F12" t="n">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G12" t="n">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="D13" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E13" t="n">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F13" t="n">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="G13" t="n">
-        <v>859</v>
+        <v>790</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D14" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="E14" t="n">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="F14" t="n">
-        <v>716</v>
+        <v>634</v>
       </c>
       <c r="G14" t="n">
-        <v>921</v>
+        <v>793</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D15" t="n">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="E15" t="n">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="F15" t="n">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="G15" t="n">
-        <v>884</v>
+        <v>775</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="D16" t="n">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E16" t="n">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="F16" t="n">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="G16" t="n">
-        <v>881</v>
+        <v>802</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D17" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E17" t="n">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F17" t="n">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="G17" t="n">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-01</t>
+          <t>2023-01-01 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>982</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>386</t>
         </is>
       </c>
     </row>
@@ -1116,67 +1116,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev Sales</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>237</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Historical Sales</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38535 units</t>
+          <t>37457</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Forecast (16 Weeks)</t>
+          <t>4 Weeks Forecast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>2946</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Forecast (8 Weeks)</t>
+          <t>8 Weeks Forecast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>4989</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Forecast (4 Weeks)</t>
+          <t>16 Weeks Forecast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>8921</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>770</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>416</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>770</v>
+        <v>807</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="D5" t="n">
         <v>444</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>586</v>
+        <v>713</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>498</v>
+        <v>671.5</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>471</v>
+        <v>657.5</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>667.5</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>524</v>
+        <v>683.5</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>559</v>
+        <v>701</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>573</v>
+        <v>710</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>551</v>
+        <v>699</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>660</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>416</v>
+        <v>604</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>419</v>
+        <v>555.5</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>418</v>
+        <v>528.5</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>37457</t>
+          <t>37457 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>10997</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4989</t>
+          <t>5856</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8921</t>
+          <t>3146</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>807</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>528</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>767</v>
+        <v>491.2</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>802</v>
+        <v>527.7</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>807</v>
+        <v>532.7</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>770</v>
+        <v>495.7</v>
       </c>
       <c r="D5" t="n">
         <v>444</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>713</v>
+        <v>439.7</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>671.5</v>
+        <v>396.7</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>657.5</v>
+        <v>382.7</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>667.5</v>
+        <v>391.7</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>683.5</v>
+        <v>409.7</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>701</v>
+        <v>426.2</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>710</v>
+        <v>433.7</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>699</v>
+        <v>421.7</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>660</v>
+        <v>383.7</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>604</v>
+        <v>328.7</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>555.5</v>
+        <v>279.7</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>528.5</v>
+        <v>254.7</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10997</t>
+          <t>6596</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5856</t>
+          <t>3658</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3146</t>
+          <t>2047</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>533</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>255</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>491.2</v>
+        <v>1055.5</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -500,8 +500,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>527.7</v>
+        <v>1050.5</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -535,8 +535,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>532.7</v>
+        <v>1075</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -570,8 +570,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>495.7</v>
+        <v>942.9000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>444</v>
@@ -605,8 +605,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>439.7</v>
+        <v>824.1</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -640,8 +640,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>396.7</v>
+        <v>744.8000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -675,8 +675,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>382.7</v>
+        <v>706.8000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -710,8 +710,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>391.7</v>
+        <v>707.5</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -745,8 +745,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>409.7</v>
+        <v>720.6</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -780,8 +780,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>426.2</v>
+        <v>783.2</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -815,8 +815,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>433.7</v>
+        <v>809.4000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -850,8 +850,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>421.7</v>
+        <v>807.2</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -885,8 +885,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>383.7</v>
+        <v>754.8000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -920,8 +920,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>328.7</v>
+        <v>638.5</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -955,8 +955,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>279.7</v>
+        <v>527.5</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -990,8 +990,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>254.7</v>
+        <v>470.7</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1025,8 +1025,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>12619</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>7107</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>1075</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>471</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1055.5</v>
+        <v>747.5</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1050.5</v>
+        <v>587</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1075</v>
+        <v>667.95</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>942.9000000000001</v>
+        <v>535.15</v>
       </c>
       <c r="D5" t="n">
         <v>444</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>824.1</v>
+        <v>518.6</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>744.8000000000001</v>
+        <v>559.8000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>706.8000000000001</v>
+        <v>536.3000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>707.5</v>
+        <v>544.5</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>720.6</v>
+        <v>501.65</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>783.2</v>
+        <v>615.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>809.4000000000001</v>
+        <v>556.0999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>807.2</v>
+        <v>524.05</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>754.8000000000001</v>
+        <v>550.3000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>638.5</v>
+        <v>491.5</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>527.5</v>
+        <v>525.3</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>470.7</v>
+        <v>524.5</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12619</t>
+          <t>8986</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7107</t>
+          <t>4697</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>748</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>492</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>747.5</v>
+        <v>746</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -500,8 +500,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559.8000000000001</v>
+        <v>556.3000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -675,8 +675,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>536.3000000000001</v>
+        <v>535.3000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -710,8 +710,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>544.5</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -745,8 +745,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>615.7</v>
+        <v>613.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -815,8 +815,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>556.0999999999999</v>
+        <v>605.9000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -850,8 +850,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>550.3000000000001</v>
+        <v>551.3000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -920,8 +920,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>491.5</v>
+        <v>491</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -955,8 +955,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>525.3</v>
+        <v>442</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -990,8 +990,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8986</t>
+          <t>8946</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4692</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>746</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>442</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>587</v>
+        <v>712.5</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>667.95</v>
+        <v>744.5</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>518.6</v>
+        <v>598.1</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>556.3000000000001</v>
+        <v>559.3000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>535.3000000000001</v>
+        <v>535.8000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>501.65</v>
+        <v>562.1</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>613.7</v>
+        <v>611.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>605.9000000000001</v>
+        <v>606.4000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>524.05</v>
+        <v>582.7</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>551.3000000000001</v>
+        <v>552.3000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>524.5</v>
+        <v>418.2</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>9243</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4976</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>745</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>418</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712.5</v>
+        <v>710.5</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>744.5</v>
+        <v>746</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>598.1</v>
+        <v>600.1</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559.3000000000001</v>
+        <v>559.8000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>535.8000000000001</v>
+        <v>536.8000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>546</v>
+        <v>544.5</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>611.7</v>
+        <v>612.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>606.4000000000001</v>
+        <v>611.4000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>582.7</v>
+        <v>586.2</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>552.3000000000001</v>
+        <v>553.3000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>489</v>
+        <v>490.5</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>444</v>
+        <v>443.5</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>418.2</v>
+        <v>417.2</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9243</t>
+          <t>9256</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>4979</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2738</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>746</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>417</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559.8000000000001</v>
+        <v>559.3000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>544.5</v>
+        <v>546</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>562.1</v>
+        <v>564.6</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>612.7</v>
+        <v>614.7</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>611.4000000000001</v>
+        <v>606.4000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>586.2</v>
+        <v>585.7</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>553.3000000000001</v>
+        <v>550.8000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>490.5</v>
+        <v>492</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>443.5</v>
+        <v>442.5</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>417.2</v>
+        <v>415.7</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>9251</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>416</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D2" t="n">
         <v>741</v>
@@ -500,7 +500,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>710.5</v>
+        <v>709</v>
       </c>
       <c r="D3" t="n">
         <v>506</v>
@@ -535,7 +535,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D4" t="n">
         <v>601</v>
@@ -570,7 +570,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>535.15</v>
+        <v>535</v>
       </c>
       <c r="D5" t="n">
         <v>444</v>
@@ -605,7 +605,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>600.1</v>
+        <v>600</v>
       </c>
       <c r="D6" t="n">
         <v>423</v>
@@ -640,7 +640,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559.3000000000001</v>
+        <v>559</v>
       </c>
       <c r="D7" t="n">
         <v>427</v>
@@ -675,7 +675,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>536.8000000000001</v>
+        <v>536</v>
       </c>
       <c r="D8" t="n">
         <v>402</v>
@@ -710,7 +710,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D9" t="n">
         <v>406</v>
@@ -745,7 +745,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>564.6</v>
+        <v>564</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -780,7 +780,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>614.7</v>
+        <v>615</v>
       </c>
       <c r="D11" t="n">
         <v>510</v>
@@ -815,7 +815,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>606.4000000000001</v>
+        <v>606</v>
       </c>
       <c r="D12" t="n">
         <v>469</v>
@@ -850,7 +850,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>585.7</v>
+        <v>583</v>
       </c>
       <c r="D13" t="n">
         <v>430</v>
@@ -885,7 +885,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>550.8000000000001</v>
+        <v>553</v>
       </c>
       <c r="D14" t="n">
         <v>442</v>
@@ -920,7 +920,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D15" t="n">
         <v>431</v>
@@ -955,7 +955,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>442.5</v>
+        <v>443</v>
       </c>
       <c r="D16" t="n">
         <v>431</v>
@@ -990,7 +990,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>415.7</v>
+        <v>416</v>
       </c>
       <c r="D17" t="n">
         <v>430</v>
@@ -1025,7 +1025,7 @@
           <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9251</t>
+          <t>9247</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>4973</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2735</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>746</v>
+        <v>670</v>
       </c>
       <c r="D2" t="n">
-        <v>741</v>
+        <v>668</v>
       </c>
       <c r="E2" t="n">
-        <v>901</v>
+        <v>785</v>
       </c>
       <c r="F2" t="n">
-        <v>1091</v>
+        <v>894</v>
       </c>
       <c r="G2" t="n">
-        <v>1394</v>
+        <v>1060</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="D3" t="n">
-        <v>506</v>
+        <v>686</v>
       </c>
       <c r="E3" t="n">
-        <v>609</v>
+        <v>819</v>
       </c>
       <c r="F3" t="n">
-        <v>720</v>
+        <v>953</v>
       </c>
       <c r="G3" t="n">
-        <v>894</v>
+        <v>1160</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>744</v>
+        <v>650</v>
       </c>
       <c r="D4" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="E4" t="n">
-        <v>727</v>
+        <v>821</v>
       </c>
       <c r="F4" t="n">
-        <v>868</v>
+        <v>959</v>
       </c>
       <c r="G4" t="n">
-        <v>1090</v>
+        <v>1173</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>535</v>
+        <v>648</v>
       </c>
       <c r="D5" t="n">
-        <v>444</v>
+        <v>655</v>
       </c>
       <c r="E5" t="n">
-        <v>536</v>
+        <v>784</v>
       </c>
       <c r="F5" t="n">
-        <v>635</v>
+        <v>916</v>
       </c>
       <c r="G5" t="n">
-        <v>792</v>
+        <v>1121</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D6" t="n">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="E6" t="n">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="F6" t="n">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G6" t="n">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="D7" t="n">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="E7" t="n">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="F7" t="n">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="G7" t="n">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="D8" t="n">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="E8" t="n">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="F8" t="n">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="G8" t="n">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>544</v>
+        <v>452</v>
       </c>
       <c r="D9" t="n">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="E9" t="n">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="F9" t="n">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="G9" t="n">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D10" t="n">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="E10" t="n">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="F10" t="n">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="G10" t="n">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>615</v>
+        <v>503</v>
       </c>
       <c r="D11" t="n">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="E11" t="n">
-        <v>615</v>
+        <v>531</v>
       </c>
       <c r="F11" t="n">
-        <v>730</v>
+        <v>623</v>
       </c>
       <c r="G11" t="n">
-        <v>911</v>
+        <v>767</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>606</v>
+        <v>454</v>
       </c>
       <c r="D12" t="n">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="E12" t="n">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="F12" t="n">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="G12" t="n">
-        <v>832</v>
+        <v>795</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>583</v>
+        <v>469</v>
       </c>
       <c r="D13" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E13" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F13" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G13" t="n">
         <v>790</v>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="D14" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F14" t="n">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G14" t="n">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="D15" t="n">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E15" t="n">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F15" t="n">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="G15" t="n">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="D16" t="n">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="E16" t="n">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="F16" t="n">
-        <v>631</v>
+        <v>588</v>
       </c>
       <c r="G16" t="n">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D17" t="n">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="E17" t="n">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="F17" t="n">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="G17" t="n">
-        <v>808</v>
+        <v>736</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-11-24</t>
+          <t>2023-01-01 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>1041</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>400</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>366</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>37457 units</t>
+          <t>40785 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9247</t>
+          <t>8347</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>4604</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>2610</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>670</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>421</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D2" t="n">
         <v>668</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D3" t="n">
         <v>686</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D4" t="n">
         <v>686</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D5" t="n">
         <v>655</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D6" t="n">
         <v>481</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D10" t="n">
         <v>446</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D11" t="n">
         <v>443</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D12" t="n">
         <v>441</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D13" t="n">
         <v>433</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D14" t="n">
         <v>433</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D15" t="n">
         <v>414</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D16" t="n">
         <v>403</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D17" t="n">
         <v>399</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8347</t>
+          <t>8410</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>4629</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>675</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>426</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D2" t="n">
         <v>668</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D3" t="n">
         <v>686</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D4" t="n">
         <v>686</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D5" t="n">
         <v>655</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D6" t="n">
         <v>481</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D10" t="n">
         <v>446</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D11" t="n">
         <v>443</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D12" t="n">
         <v>441</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D13" t="n">
         <v>433</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D14" t="n">
         <v>433</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D15" t="n">
         <v>414</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D16" t="n">
         <v>403</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D17" t="n">
         <v>399</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>8347</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>4606</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2612</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>670</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>420</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>670</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>675</v>
+      </c>
+      <c r="E2" t="n">
         <v>668</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>785</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>894</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1060</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>643</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D3" t="n">
+        <v>649</v>
+      </c>
+      <c r="E3" t="n">
         <v>686</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>819</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>953</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1160</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>651</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D4" t="n">
+        <v>656</v>
+      </c>
+      <c r="E4" t="n">
         <v>686</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>821</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>959</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1173</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>648</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>651</v>
+      </c>
+      <c r="E5" t="n">
         <v>655</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>784</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>916</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1121</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>594</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>598</v>
+      </c>
+      <c r="E6" t="n">
         <v>481</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>572</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>660</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>795</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>485</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>473</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>561</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>647</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>780</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>462</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>435</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>521</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>609</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>747</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>452</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>451</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>539</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>626</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>763</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>558</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D10" t="n">
+        <v>563</v>
+      </c>
+      <c r="E10" t="n">
         <v>446</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>533</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>620</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>756</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>503</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D11" t="n">
+        <v>508</v>
+      </c>
+      <c r="E11" t="n">
         <v>443</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>531</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>623</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>767</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>455</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D12" t="n">
+        <v>460</v>
+      </c>
+      <c r="E12" t="n">
         <v>441</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>533</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>635</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>795</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>468</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>474</v>
+      </c>
+      <c r="E13" t="n">
         <v>433</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>525</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>627</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>790</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>474</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>479</v>
+      </c>
+      <c r="E14" t="n">
         <v>433</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>522</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>620</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>773</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>427</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D15" t="n">
+        <v>432</v>
+      </c>
+      <c r="E15" t="n">
         <v>414</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>501</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>598</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>751</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>420</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D16" t="n">
+        <v>427</v>
+      </c>
+      <c r="E16" t="n">
         <v>403</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>489</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>588</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>747</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>436</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
       </c>
       <c r="D17" t="n">
+        <v>441</v>
+      </c>
+      <c r="E17" t="n">
         <v>399</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>484</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>581</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>736</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B650 AORUS ELITE AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8347</t>
+          <t>8412</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>4629</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>675</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>427</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="E2" t="n">
         <v>668</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E3" t="n">
         <v>686</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E4" t="n">
         <v>686</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="E5" t="n">
         <v>655</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>598</v>
+        <v>477</v>
       </c>
       <c r="E6" t="n">
         <v>481</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E10" t="n">
         <v>446</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E11" t="n">
         <v>443</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E12" t="n">
         <v>441</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E13" t="n">
         <v>433</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E14" t="n">
         <v>433</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E15" t="n">
         <v>414</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E16" t="n">
         <v>403</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E17" t="n">
         <v>399</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8412</t>
+          <t>8341</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>4525</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2649</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>680</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>430</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E2" t="n">
         <v>668</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E3" t="n">
         <v>686</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E4" t="n">
         <v>686</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E5" t="n">
         <v>655</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>477</v>
+        <v>598</v>
       </c>
       <c r="E6" t="n">
         <v>481</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E10" t="n">
         <v>446</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E11" t="n">
         <v>443</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E12" t="n">
         <v>441</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E13" t="n">
         <v>433</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E14" t="n">
         <v>433</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E15" t="n">
         <v>414</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E16" t="n">
         <v>403</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E17" t="n">
         <v>399</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8341</t>
+          <t>8408</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>4629</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>673</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>425</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E2" t="n">
         <v>668</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E3" t="n">
         <v>686</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E10" t="n">
         <v>446</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E11" t="n">
         <v>443</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E17" t="n">
         <v>399</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2632</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>675</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="E2" t="n">
         <v>668</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>648</v>
+        <v>739</v>
       </c>
       <c r="E3" t="n">
         <v>686</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="E4" t="n">
         <v>686</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>654</v>
+        <v>775</v>
       </c>
       <c r="E5" t="n">
         <v>655</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>598</v>
+        <v>517</v>
       </c>
       <c r="E6" t="n">
         <v>481</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="E7" t="n">
         <v>473</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E8" t="n">
         <v>435</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>452</v>
+        <v>699</v>
       </c>
       <c r="E9" t="n">
         <v>451</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="E10" t="n">
         <v>446</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="E11" t="n">
         <v>443</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="E12" t="n">
         <v>441</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="E13" t="n">
         <v>433</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="E14" t="n">
         <v>433</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="E15" t="n">
         <v>414</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="E16" t="n">
         <v>403</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>439</v>
+        <v>536</v>
       </c>
       <c r="E17" t="n">
         <v>399</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-29</t>
+          <t>2023-01-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1033</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>244</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>40785 units</t>
+          <t>41117 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8408</t>
+          <t>9330</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4629</t>
+          <t>5199</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>3005</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>775</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>453</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>749</v>
+        <v>553</v>
       </c>
       <c r="E2" t="n">
-        <v>668</v>
+        <v>538</v>
       </c>
       <c r="F2" t="n">
-        <v>785</v>
+        <v>628</v>
       </c>
       <c r="G2" t="n">
-        <v>894</v>
+        <v>708</v>
       </c>
       <c r="H2" t="n">
-        <v>1060</v>
+        <v>830</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>739</v>
+        <v>562</v>
       </c>
       <c r="E3" t="n">
-        <v>686</v>
+        <v>564</v>
       </c>
       <c r="F3" t="n">
-        <v>819</v>
+        <v>664</v>
       </c>
       <c r="G3" t="n">
-        <v>953</v>
+        <v>757</v>
       </c>
       <c r="H3" t="n">
-        <v>1160</v>
+        <v>898</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>742</v>
+        <v>543</v>
       </c>
       <c r="E4" t="n">
-        <v>686</v>
+        <v>439</v>
       </c>
       <c r="F4" t="n">
-        <v>821</v>
+        <v>508</v>
       </c>
       <c r="G4" t="n">
-        <v>959</v>
+        <v>568</v>
       </c>
       <c r="H4" t="n">
-        <v>1173</v>
+        <v>658</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>775</v>
+        <v>424</v>
       </c>
       <c r="E5" t="n">
-        <v>655</v>
+        <v>424</v>
       </c>
       <c r="F5" t="n">
-        <v>784</v>
+        <v>493</v>
       </c>
       <c r="G5" t="n">
-        <v>916</v>
+        <v>554</v>
       </c>
       <c r="H5" t="n">
-        <v>1121</v>
+        <v>645</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>517</v>
+        <v>428</v>
       </c>
       <c r="E6" t="n">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="F6" t="n">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="G6" t="n">
+        <v>563</v>
+      </c>
+      <c r="H6" t="n">
         <v>660</v>
-      </c>
-      <c r="H6" t="n">
-        <v>795</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="E7" t="n">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="F7" t="n">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="G7" t="n">
-        <v>647</v>
+        <v>550</v>
       </c>
       <c r="H7" t="n">
-        <v>780</v>
+        <v>643</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="E8" t="n">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="G8" t="n">
-        <v>609</v>
+        <v>537</v>
       </c>
       <c r="H8" t="n">
-        <v>747</v>
+        <v>639</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>699</v>
+        <v>455</v>
       </c>
       <c r="E9" t="n">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="F9" t="n">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="G9" t="n">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="H9" t="n">
-        <v>763</v>
+        <v>669</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>583</v>
+        <v>429</v>
       </c>
       <c r="E10" t="n">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="F10" t="n">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="G10" t="n">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="H10" t="n">
-        <v>756</v>
+        <v>660</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="E11" t="n">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="F11" t="n">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="G11" t="n">
-        <v>623</v>
+        <v>540</v>
       </c>
       <c r="H11" t="n">
-        <v>767</v>
+        <v>648</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>533</v>
+        <v>426</v>
       </c>
       <c r="E12" t="n">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="F12" t="n">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="G12" t="n">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="H12" t="n">
-        <v>795</v>
+        <v>663</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>532</v>
+        <v>409</v>
       </c>
       <c r="E13" t="n">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="F13" t="n">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="G13" t="n">
-        <v>627</v>
+        <v>542</v>
       </c>
       <c r="H13" t="n">
-        <v>790</v>
+        <v>665</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="E14" t="n">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="F14" t="n">
-        <v>522</v>
+        <v>459</v>
       </c>
       <c r="G14" t="n">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="H14" t="n">
-        <v>773</v>
+        <v>642</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="E15" t="n">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="F15" t="n">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="G15" t="n">
-        <v>598</v>
+        <v>513</v>
       </c>
       <c r="H15" t="n">
-        <v>751</v>
+        <v>625</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="E16" t="n">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="F16" t="n">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="G16" t="n">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="H16" t="n">
-        <v>747</v>
+        <v>634</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="E17" t="n">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="F17" t="n">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="G17" t="n">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="H17" t="n">
-        <v>736</v>
+        <v>624</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-05</t>
+          <t>2023-01-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1025</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>398</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>41117 units</t>
+          <t>41397 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9330</t>
+          <t>7223</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5199</t>
+          <t>3889</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>2082</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>562</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>392</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="E5" t="n">
         <v>424</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="E6" t="n">
         <v>428</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>421</v>
+        <v>534</v>
       </c>
       <c r="E7" t="n">
         <v>420</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7223</t>
+          <t>7564</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>4229</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>2196</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>553</v>
+        <v>640</v>
       </c>
       <c r="E2" t="n">
         <v>538</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>562</v>
+        <v>641</v>
       </c>
       <c r="E3" t="n">
         <v>564</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>543</v>
+        <v>679</v>
       </c>
       <c r="E4" t="n">
         <v>439</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>538</v>
+        <v>678</v>
       </c>
       <c r="E5" t="n">
         <v>424</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>543</v>
+        <v>685</v>
       </c>
       <c r="E6" t="n">
         <v>428</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>534</v>
+        <v>672</v>
       </c>
       <c r="E7" t="n">
         <v>420</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>502</v>
+        <v>621</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="E9" t="n">
         <v>420</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="E10" t="n">
         <v>411</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="E11" t="n">
         <v>397</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="E13" t="n">
         <v>387</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E15" t="n">
         <v>369</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="E16" t="n">
         <v>368</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="E17" t="n">
         <v>362</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7564</t>
+          <t>8805</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4229</t>
+          <t>5130</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2196</t>
+          <t>2638</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>685</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>410</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="E2" t="n">
         <v>538</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="E3" t="n">
         <v>564</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>679</v>
+        <v>571</v>
       </c>
       <c r="E4" t="n">
         <v>439</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>678</v>
+        <v>551</v>
       </c>
       <c r="E5" t="n">
         <v>424</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>685</v>
+        <v>556</v>
       </c>
       <c r="E6" t="n">
         <v>428</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>672</v>
+        <v>546</v>
       </c>
       <c r="E7" t="n">
         <v>420</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>621</v>
+        <v>434</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>514</v>
+        <v>342</v>
       </c>
       <c r="E9" t="n">
         <v>420</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>468</v>
+        <v>319</v>
       </c>
       <c r="E10" t="n">
         <v>411</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="E11" t="n">
         <v>397</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>472</v>
+        <v>300</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="E13" t="n">
         <v>387</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="E15" t="n">
         <v>369</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="E16" t="n">
         <v>368</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>523</v>
+        <v>432</v>
       </c>
       <c r="E17" t="n">
         <v>362</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-12</t>
+          <t>2023-01-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>1042</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>405</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>251</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>41397 units</t>
+          <t>42490 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8805</t>
+          <t>7309</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5130</t>
+          <t>4433</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>2554</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>733</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>270</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E9" t="n">
         <v>420</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" t="n">
         <v>397</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15" t="n">
         <v>369</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E16" t="n">
         <v>368</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E17" t="n">
         <v>362</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1017</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>397</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>362</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>241</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42490 units</t>
+          <t>41655 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7309</t>
+          <t>7306</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>4432</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>271</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E9" t="n">
         <v>420</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E10" t="n">
         <v>411</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="E11" t="n">
         <v>397</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>301</v>
+        <v>514</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E15" t="n">
         <v>369</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="E16" t="n">
         <v>368</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="E17" t="n">
         <v>362</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7306</t>
+          <t>7829</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4432</t>
+          <t>4450</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>699</v>
+        <v>523</v>
       </c>
       <c r="E2" t="n">
-        <v>538</v>
+        <v>402</v>
       </c>
       <c r="F2" t="n">
-        <v>628</v>
+        <v>464</v>
       </c>
       <c r="G2" t="n">
-        <v>708</v>
+        <v>517</v>
       </c>
       <c r="H2" t="n">
-        <v>830</v>
+        <v>597</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>733</v>
+        <v>446</v>
       </c>
       <c r="E3" t="n">
-        <v>564</v>
+        <v>343</v>
       </c>
       <c r="F3" t="n">
-        <v>664</v>
+        <v>399</v>
       </c>
       <c r="G3" t="n">
-        <v>757</v>
+        <v>448</v>
       </c>
       <c r="H3" t="n">
-        <v>898</v>
+        <v>522</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>571</v>
+        <v>462</v>
       </c>
       <c r="E4" t="n">
-        <v>439</v>
+        <v>355</v>
       </c>
       <c r="F4" t="n">
-        <v>508</v>
+        <v>414</v>
       </c>
       <c r="G4" t="n">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="H4" t="n">
-        <v>658</v>
+        <v>545</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>551</v>
+        <v>469</v>
       </c>
       <c r="E5" t="n">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="F5" t="n">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="G5" t="n">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="H5" t="n">
-        <v>645</v>
+        <v>565</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="E6" t="n">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="G6" t="n">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="H6" t="n">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>546</v>
+        <v>394</v>
       </c>
       <c r="E7" t="n">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="F7" t="n">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="G7" t="n">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="H7" t="n">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="F8" t="n">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="G8" t="n">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="H8" t="n">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="E9" t="n">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="F9" t="n">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="G9" t="n">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="H9" t="n">
-        <v>669</v>
+        <v>603</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="E10" t="n">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="F10" t="n">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="G10" t="n">
-        <v>554</v>
+        <v>482</v>
       </c>
       <c r="H10" t="n">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="E11" t="n">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="F11" t="n">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="G11" t="n">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="H11" t="n">
-        <v>648</v>
+        <v>574</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>514</v>
+        <v>341</v>
       </c>
       <c r="E12" t="n">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="F12" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="G12" t="n">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="H12" t="n">
-        <v>663</v>
+        <v>583</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>503</v>
+        <v>339</v>
       </c>
       <c r="E13" t="n">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="F13" t="n">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="G13" t="n">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="H13" t="n">
-        <v>665</v>
+        <v>594</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="E14" t="n">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="F14" t="n">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="G14" t="n">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="H14" t="n">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="E15" t="n">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="F15" t="n">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="G15" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="H15" t="n">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="E16" t="n">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="F16" t="n">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="G16" t="n">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="H16" t="n">
-        <v>634</v>
+        <v>563</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="E17" t="n">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="F17" t="n">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="G17" t="n">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="H17" t="n">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-19</t>
+          <t>2023-01-01 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1004</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>395</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>361</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>41655 units</t>
+          <t>41872 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7829</t>
+          <t>6438</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>3492</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>1899</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>523</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>339</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" t="n">
         <v>402</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E6" t="n">
         <v>357</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E8" t="n">
         <v>354</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E9" t="n">
         <v>368</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E10" t="n">
         <v>353</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E12" t="n">
         <v>343</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E13" t="n">
         <v>339</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E14" t="n">
         <v>333</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E16" t="n">
         <v>321</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E17" t="n">
         <v>314</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6438</t>
+          <t>6451</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>3499</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>342</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E2" t="n">
         <v>402</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E6" t="n">
         <v>357</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E8" t="n">
         <v>354</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E9" t="n">
         <v>368</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E10" t="n">
         <v>353</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E11" t="n">
         <v>346</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E12" t="n">
         <v>343</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E14" t="n">
         <v>333</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E16" t="n">
         <v>321</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E17" t="n">
         <v>314</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6451</t>
+          <t>6456</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>3505</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>336</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
+++ b/Sufficient data/forecast_summary_B0BH7GTY9C.xlsx
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E6" t="n">
         <v>357</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E8" t="n">
         <v>354</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E9" t="n">
         <v>368</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E10" t="n">
         <v>353</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E11" t="n">
         <v>346</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E12" t="n">
         <v>343</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" t="n">
         <v>339</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E14" t="n">
         <v>333</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E15" t="n">
         <v>324</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E16" t="n">
         <v>321</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E17" t="n">
         <v>314</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6456</t>
+          <t>6425</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>3482</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>337</t>
         </is>
       </c>
     </row>
